--- a/prh/penguin_random_house_books.xlsx
+++ b/prh/penguin_random_house_books.xlsx
@@ -147,15 +147,15 @@
     <t>$30.699</t>
   </si>
   <si>
+    <t>$27.629</t>
+  </si>
+  <si>
+    <t>10%</t>
+  </si>
+  <si>
     <t>$30699.00</t>
   </si>
   <si>
-    <t>$27.629</t>
-  </si>
-  <si>
-    <t>10%</t>
-  </si>
-  <si>
     <t>Me sorprende que te quedes</t>
   </si>
   <si>
@@ -189,15 +189,546 @@
     <t>$11.339</t>
   </si>
   <si>
+    <t>En esta noche, en este mundo</t>
+  </si>
+  <si>
+    <t>$14.699,00</t>
+  </si>
+  <si>
+    <t>marzo 2022</t>
+  </si>
+  <si>
+    <t>RANDOM HOUSE</t>
+  </si>
+  <si>
+    <t>POESÍA PORTÁTIL</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>02-03-2022</t>
+  </si>
+  <si>
+    <t>9789877692198</t>
+  </si>
+  <si>
+    <t>$13.229</t>
+  </si>
+  <si>
+    <t>$14699.00</t>
+  </si>
+  <si>
+    <t>Ojos de sol</t>
+  </si>
+  <si>
+    <t>Miguel Gane</t>
+  </si>
+  <si>
+    <t>$19.899,00</t>
+  </si>
+  <si>
+    <t>abril 2022</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>VERSO&amp;CUENTO</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>01-04-2022</t>
+  </si>
+  <si>
+    <t>9789877352818</t>
+  </si>
+  <si>
+    <t>$17.909</t>
+  </si>
+  <si>
+    <t>$19899.00</t>
+  </si>
+  <si>
+    <t>El oro de los tigres / La rosa profunda</t>
+  </si>
+  <si>
+    <t>Jorge Luis Borges</t>
+  </si>
+  <si>
+    <t>$9.999,00</t>
+  </si>
+  <si>
+    <t>agosto 2012</t>
+  </si>
+  <si>
+    <t>DEBOLSILLO</t>
+  </si>
+  <si>
+    <t>CONTEMPORANEA</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>Bolsillo</t>
+  </si>
+  <si>
+    <t>01-08-2012</t>
+  </si>
+  <si>
+    <t>DEBOLS!LLO</t>
+  </si>
+  <si>
+    <t>9789875668331</t>
+  </si>
+  <si>
+    <t>$8.999</t>
+  </si>
+  <si>
+    <t>$9999.00</t>
+  </si>
+  <si>
+    <t>La cifra</t>
+  </si>
+  <si>
+    <t>febrero 2020</t>
+  </si>
+  <si>
+    <t>SUDAMERICANA</t>
+  </si>
+  <si>
+    <t>BIBLIOTECA JORGE LUIS BORGES</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>01-02-2020</t>
+  </si>
+  <si>
+    <t>9789500763790</t>
+  </si>
+  <si>
+    <t>$13.229,10</t>
+  </si>
+  <si>
+    <t>La rosa profunda</t>
+  </si>
+  <si>
+    <t>noviembre 2018</t>
+  </si>
+  <si>
+    <t>01-11-2018</t>
+  </si>
+  <si>
+    <t>9789500762120</t>
+  </si>
+  <si>
+    <t>César Vallejo</t>
+  </si>
+  <si>
+    <t>$26.399,00</t>
+  </si>
+  <si>
+    <t>octubre 2023</t>
+  </si>
+  <si>
+    <t>488</t>
+  </si>
+  <si>
+    <t>01-10-2023</t>
+  </si>
+  <si>
+    <t>9786124270406</t>
+  </si>
+  <si>
+    <t>$26399.00</t>
+  </si>
+  <si>
+    <t>$20.879</t>
+  </si>
+  <si>
+    <t>Salvo el crepúsculo</t>
+  </si>
+  <si>
+    <t>Julio Cortázar</t>
+  </si>
+  <si>
+    <t>$23.099,00</t>
+  </si>
+  <si>
+    <t>febrero 2018</t>
+  </si>
+  <si>
+    <t>ALFAGUARA</t>
+  </si>
+  <si>
+    <t>HISPANICA</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>01-02-2018</t>
+  </si>
+  <si>
+    <t>9789877384178</t>
+  </si>
+  <si>
+    <t>$23099.00</t>
+  </si>
+  <si>
+    <t>$20.789,10</t>
+  </si>
+  <si>
+    <t>$20.789</t>
+  </si>
+  <si>
+    <t>Me peleé a los gritos con el mánager del spa</t>
+  </si>
+  <si>
+    <t>Carla Quevedo</t>
+  </si>
+  <si>
+    <t>$11.899,00</t>
+  </si>
+  <si>
+    <t>febrero 2023</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>01-02-2023</t>
+  </si>
+  <si>
+    <t>9789877803976</t>
+  </si>
+  <si>
+    <t>$10.709,10</t>
+  </si>
+  <si>
+    <t>$9.265</t>
+  </si>
+  <si>
+    <t>22%</t>
+  </si>
+  <si>
+    <t>$11899.00</t>
+  </si>
+  <si>
+    <t>Las renegadas</t>
+  </si>
+  <si>
+    <t>Gabriela Mistral</t>
+  </si>
+  <si>
+    <t>$21.499,00</t>
+  </si>
+  <si>
+    <t>abril 2019</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>01-04-2019</t>
+  </si>
+  <si>
+    <t>9789568856748</t>
+  </si>
+  <si>
+    <t>$21499.00</t>
+  </si>
+  <si>
+    <t>$19.349,10</t>
+  </si>
+  <si>
+    <t>$19.349</t>
+  </si>
+  <si>
+    <t>Aquella orilla nuestra</t>
+  </si>
+  <si>
+    <t>Elvira Sastre</t>
+  </si>
+  <si>
+    <t>$13.499,00</t>
+  </si>
+  <si>
+    <t>diciembre 2018</t>
+  </si>
+  <si>
+    <t>ALFAGUARA IJ</t>
+  </si>
+  <si>
+    <t>ALFAGUARA INFANTIL &amp; JUVENIL</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>A partir de 12 años</t>
+  </si>
+  <si>
+    <t>01-12-2018</t>
+  </si>
+  <si>
+    <t>ALFAGUARA INFANTIL JUVENIL</t>
+  </si>
+  <si>
+    <t>9789877385250</t>
+  </si>
+  <si>
+    <t>$13499.00</t>
+  </si>
+  <si>
+    <t>$12.149,10</t>
+  </si>
+  <si>
+    <t>$10.452</t>
+  </si>
+  <si>
+    <t>23%</t>
+  </si>
+  <si>
+    <t>Los conjurados</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>01-03-2022</t>
+  </si>
+  <si>
+    <t>9789500766746</t>
+  </si>
+  <si>
+    <t>Imagen de John Keats</t>
+  </si>
+  <si>
+    <t>$32.299,00</t>
+  </si>
+  <si>
+    <t>junio 2022</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>01-06-2022</t>
+  </si>
+  <si>
+    <t>9789877389234</t>
+  </si>
+  <si>
+    <t>$32299.00</t>
+  </si>
+  <si>
+    <t>$29.069</t>
+  </si>
+  <si>
+    <t>La piel en los labios</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>20-04-2022</t>
+  </si>
+  <si>
+    <t>9789877352870</t>
+  </si>
+  <si>
+    <t>$17.909,10</t>
+  </si>
+  <si>
+    <t>Obra poética</t>
+  </si>
+  <si>
+    <t>$44.099,00</t>
+  </si>
+  <si>
+    <t>mayo 2011</t>
+  </si>
+  <si>
+    <t>640</t>
+  </si>
+  <si>
+    <t>Tapa dura</t>
+  </si>
+  <si>
+    <t>01-05-2011</t>
+  </si>
+  <si>
+    <t>9789500735018</t>
+  </si>
+  <si>
+    <t>$44099.00</t>
+  </si>
+  <si>
+    <t>$39.689,10</t>
+  </si>
+  <si>
+    <t>$39.689</t>
+  </si>
+  <si>
+    <t>$44.099</t>
+  </si>
+  <si>
+    <t>Idea Vilariño</t>
+  </si>
+  <si>
+    <t>$20.399,00</t>
+  </si>
+  <si>
+    <t>julio 2018</t>
+  </si>
+  <si>
+    <t>01-07-2018</t>
+  </si>
+  <si>
+    <t>9788426403490</t>
+  </si>
+  <si>
+    <t>$20399.00</t>
+  </si>
+  <si>
+    <t>$18.359</t>
+  </si>
+  <si>
+    <t>Fervor de Buenos Aires – Luna de enfrente – Cuaderno San Martín</t>
+  </si>
+  <si>
+    <t>$13.999,00</t>
+  </si>
+  <si>
+    <t>mayo 2023</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>01-05-2023</t>
+  </si>
+  <si>
+    <t>9789500768726</t>
+  </si>
+  <si>
+    <t>$13999.00</t>
+  </si>
+  <si>
+    <t>$13.999</t>
+  </si>
+  <si>
+    <t>$12.599,10</t>
+  </si>
+  <si>
+    <t>$11.171</t>
+  </si>
+  <si>
+    <t>20%</t>
+  </si>
+  <si>
+    <t>Poemas y canciones</t>
+  </si>
+  <si>
+    <t>María Elena Walsh</t>
+  </si>
+  <si>
+    <t>$29.699,00</t>
+  </si>
+  <si>
+    <t>enero 2014</t>
+  </si>
+  <si>
+    <t>SIN DET. ALFAGUARA</t>
+  </si>
+  <si>
+    <t>416</t>
+  </si>
+  <si>
+    <t>24-01-2014</t>
+  </si>
+  <si>
+    <t>9789870432517</t>
+  </si>
+  <si>
+    <t>$29699.00</t>
+  </si>
+  <si>
+    <t>$26.729,10</t>
+  </si>
+  <si>
+    <t>$26.729</t>
+  </si>
+  <si>
+    <t>Poesía reunida</t>
+  </si>
+  <si>
+    <t>Roberto Bolaño</t>
+  </si>
+  <si>
+    <t>$41.999,00</t>
+  </si>
+  <si>
+    <t>abril 2021</t>
+  </si>
+  <si>
+    <t>688</t>
+  </si>
+  <si>
+    <t>05-04-2021</t>
+  </si>
+  <si>
+    <t>9789877387766</t>
+  </si>
+  <si>
+    <t>$41999.00</t>
+  </si>
+  <si>
+    <t>$37.799,10</t>
+  </si>
+  <si>
+    <t>$37.799</t>
+  </si>
+  <si>
+    <t>Puedes hacerme lo que quieras</t>
+  </si>
+  <si>
+    <t>$14.999,00</t>
+  </si>
+  <si>
+    <t>marzo 2024</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>01-03-2024</t>
+  </si>
+  <si>
+    <t>9789877353402</t>
+  </si>
+  <si>
+    <t>$14999.00</t>
+  </si>
+  <si>
+    <t>$13.499,10</t>
+  </si>
+  <si>
+    <t>$13.499</t>
+  </si>
+  <si>
     <t>Augurios de inocencia</t>
   </si>
   <si>
     <t>Patti Smith</t>
   </si>
   <si>
-    <t>$14.699,00</t>
-  </si>
-  <si>
     <t>agosto 2019</t>
   </si>
   <si>
@@ -210,457 +741,37 @@
     <t>9788426406248</t>
   </si>
   <si>
-    <t>$14699.00</t>
-  </si>
-  <si>
-    <t>$13.229</t>
-  </si>
-  <si>
-    <t>Puedes hacerme lo que quieras</t>
-  </si>
-  <si>
-    <t>Miguel Gane</t>
-  </si>
-  <si>
-    <t>$14.999,00</t>
-  </si>
-  <si>
-    <t>marzo 2024</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>VERSO&amp;CUENTO</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>01-03-2024</t>
-  </si>
-  <si>
-    <t>9789877353402</t>
-  </si>
-  <si>
-    <t>$14999.00</t>
-  </si>
-  <si>
-    <t>$13.499</t>
-  </si>
-  <si>
-    <t>$13.499,10</t>
-  </si>
-  <si>
-    <t>El oro de los tigres / La rosa profunda</t>
-  </si>
-  <si>
-    <t>Jorge Luis Borges</t>
-  </si>
-  <si>
-    <t>$9.999,00</t>
-  </si>
-  <si>
-    <t>agosto 2012</t>
-  </si>
-  <si>
-    <t>DEBOLSILLO</t>
-  </si>
-  <si>
-    <t>CONTEMPORANEA</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>Bolsillo</t>
-  </si>
-  <si>
-    <t>01-08-2012</t>
-  </si>
-  <si>
-    <t>DEBOLS!LLO</t>
-  </si>
-  <si>
-    <t>9789875668331</t>
-  </si>
-  <si>
-    <t>$9999.00</t>
-  </si>
-  <si>
-    <t>$8.999</t>
-  </si>
-  <si>
-    <t>Los conjurados</t>
-  </si>
-  <si>
-    <t>marzo 2022</t>
-  </si>
-  <si>
-    <t>SUDAMERICANA</t>
-  </si>
-  <si>
-    <t>BIBLIOTECA JORGE LUIS BORGES</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>01-03-2022</t>
-  </si>
-  <si>
-    <t>9789500766746</t>
-  </si>
-  <si>
-    <t>$13.229,10</t>
-  </si>
-  <si>
-    <t>La piel en los labios</t>
-  </si>
-  <si>
-    <t>$19.899,00</t>
-  </si>
-  <si>
-    <t>abril 2022</t>
-  </si>
-  <si>
-    <t>296</t>
-  </si>
-  <si>
-    <t>20-04-2022</t>
-  </si>
-  <si>
-    <t>9789877352870</t>
-  </si>
-  <si>
-    <t>$19899.00</t>
-  </si>
-  <si>
-    <t>$17.909</t>
-  </si>
-  <si>
-    <t>$17.909,10</t>
-  </si>
-  <si>
-    <t>Poemas y canciones</t>
-  </si>
-  <si>
-    <t>María Elena Walsh</t>
-  </si>
-  <si>
-    <t>$29.699,00</t>
-  </si>
-  <si>
-    <t>enero 2014</t>
-  </si>
-  <si>
-    <t>ALFAGUARA</t>
-  </si>
-  <si>
-    <t>SIN DET. ALFAGUARA</t>
-  </si>
-  <si>
-    <t>416</t>
-  </si>
-  <si>
-    <t>24-01-2014</t>
-  </si>
-  <si>
-    <t>9789870432517</t>
-  </si>
-  <si>
-    <t>$29699.00</t>
-  </si>
-  <si>
-    <t>$26.729</t>
-  </si>
-  <si>
-    <t>$26.729,10</t>
-  </si>
-  <si>
-    <t>Me peleé a los gritos con el mánager del spa</t>
-  </si>
-  <si>
-    <t>Carla Quevedo</t>
-  </si>
-  <si>
-    <t>$11.899,00</t>
-  </si>
-  <si>
-    <t>febrero 2023</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>01-02-2023</t>
-  </si>
-  <si>
-    <t>9789877803976</t>
-  </si>
-  <si>
-    <t>$11899.00</t>
-  </si>
-  <si>
-    <t>$9.265</t>
-  </si>
-  <si>
-    <t>22%</t>
-  </si>
-  <si>
-    <t>$10.709,10</t>
-  </si>
-  <si>
-    <t>César Vallejo</t>
-  </si>
-  <si>
-    <t>$26.399,00</t>
-  </si>
-  <si>
-    <t>octubre 2023</t>
-  </si>
-  <si>
-    <t>488</t>
-  </si>
-  <si>
-    <t>01-10-2023</t>
-  </si>
-  <si>
-    <t>9786124270406</t>
-  </si>
-  <si>
-    <t>$26399.00</t>
-  </si>
-  <si>
-    <t>$20.879</t>
-  </si>
-  <si>
-    <t>Poesía reunida</t>
-  </si>
-  <si>
-    <t>Roberto Bolaño</t>
-  </si>
-  <si>
-    <t>$41.999,00</t>
-  </si>
-  <si>
-    <t>abril 2021</t>
-  </si>
-  <si>
-    <t>HISPANICA</t>
-  </si>
-  <si>
-    <t>688</t>
-  </si>
-  <si>
-    <t>05-04-2021</t>
-  </si>
-  <si>
-    <t>9789877387766</t>
-  </si>
-  <si>
-    <t>$41999.00</t>
-  </si>
-  <si>
-    <t>$37.799</t>
-  </si>
-  <si>
-    <t>$37.799,10</t>
-  </si>
-  <si>
-    <t>Obra poética</t>
-  </si>
-  <si>
-    <t>$44.099,00</t>
-  </si>
-  <si>
-    <t>mayo 2011</t>
-  </si>
-  <si>
-    <t>640</t>
-  </si>
-  <si>
-    <t>Tapa dura</t>
-  </si>
-  <si>
-    <t>01-05-2011</t>
-  </si>
-  <si>
-    <t>9789500735018</t>
-  </si>
-  <si>
-    <t>$44099.00</t>
-  </si>
-  <si>
-    <t>$39.689</t>
-  </si>
-  <si>
-    <t>$44.099</t>
-  </si>
-  <si>
-    <t>$39.689,10</t>
-  </si>
-  <si>
-    <t>Imagen de John Keats</t>
-  </si>
-  <si>
-    <t>Julio Cortázar</t>
-  </si>
-  <si>
-    <t>$32.299,00</t>
-  </si>
-  <si>
-    <t>junio 2022</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>01-06-2022</t>
-  </si>
-  <si>
-    <t>9789877389234</t>
-  </si>
-  <si>
-    <t>$32299.00</t>
-  </si>
-  <si>
-    <t>$29.069</t>
-  </si>
-  <si>
-    <t>Aquella orilla nuestra</t>
-  </si>
-  <si>
-    <t>Elvira Sastre</t>
-  </si>
-  <si>
-    <t>$13.499,00</t>
-  </si>
-  <si>
-    <t>diciembre 2018</t>
-  </si>
-  <si>
-    <t>ALFAGUARA IJ</t>
-  </si>
-  <si>
-    <t>ALFAGUARA INFANTIL &amp; JUVENIL</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>A partir de 12 años</t>
-  </si>
-  <si>
-    <t>01-12-2018</t>
-  </si>
-  <si>
-    <t>ALFAGUARA INFANTIL JUVENIL</t>
-  </si>
-  <si>
-    <t>9789877385250</t>
-  </si>
-  <si>
-    <t>$13499.00</t>
-  </si>
-  <si>
-    <t>$10.452</t>
-  </si>
-  <si>
-    <t>23%</t>
-  </si>
-  <si>
-    <t>$12.149,10</t>
-  </si>
-  <si>
     <t>Soy vertical, pero preferiría ser horizontal (Flash Poesía)</t>
   </si>
   <si>
     <t>Sylvia Plath</t>
   </si>
   <si>
-    <t>febrero 2020</t>
-  </si>
-  <si>
-    <t>RANDOM HOUSE</t>
-  </si>
-  <si>
-    <t>POESÍA PORTÁTIL</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>01-02-2020</t>
-  </si>
-  <si>
     <t>9789877690927</t>
   </si>
   <si>
-    <t>Fervor de Buenos Aires – Luna de enfrente – Cuaderno San Martín</t>
-  </si>
-  <si>
-    <t>$13.999,00</t>
-  </si>
-  <si>
-    <t>mayo 2023</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>01-05-2023</t>
-  </si>
-  <si>
-    <t>9789500768726</t>
-  </si>
-  <si>
-    <t>$13999.00</t>
-  </si>
-  <si>
-    <t>$11.171</t>
-  </si>
-  <si>
-    <t>20%</t>
-  </si>
-  <si>
-    <t>$13.999</t>
-  </si>
-  <si>
-    <t>$12.599,10</t>
-  </si>
-  <si>
-    <t>La cifra</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>9789500763790</t>
-  </si>
-  <si>
-    <t>Idea Vilariño</t>
-  </si>
-  <si>
-    <t>$20.399,00</t>
-  </si>
-  <si>
-    <t>julio 2018</t>
-  </si>
-  <si>
-    <t>336</t>
-  </si>
-  <si>
-    <t>01-07-2018</t>
-  </si>
-  <si>
-    <t>9788426403490</t>
-  </si>
-  <si>
-    <t>$20399.00</t>
-  </si>
-  <si>
-    <t>$18.359</t>
+    <t>El otro, el mismo / Para las seis cuerdas / Elogio de la sombra</t>
+  </si>
+  <si>
+    <t>$15.799,00</t>
+  </si>
+  <si>
+    <t>septiembre 2012</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>01-09-2012</t>
+  </si>
+  <si>
+    <t>9789875668324</t>
+  </si>
+  <si>
+    <t>$14.219</t>
+  </si>
+  <si>
+    <t>$15799.00</t>
   </si>
   <si>
     <t>Morí por la belleza</t>
@@ -669,21 +780,12 @@
     <t>Emily Dickinson</t>
   </si>
   <si>
-    <t>02-03-2022</t>
-  </si>
-  <si>
     <t>9789877692181</t>
   </si>
   <si>
     <t>$14.699</t>
   </si>
   <si>
-    <t>En esta noche, en este mundo</t>
-  </si>
-  <si>
-    <t>9789877692198</t>
-  </si>
-  <si>
     <t>Meteoro</t>
   </si>
   <si>
@@ -705,30 +807,96 @@
     <t>$13699.00</t>
   </si>
   <si>
+    <t>$12.329,10</t>
+  </si>
+  <si>
     <t>$12.329</t>
   </si>
   <si>
-    <t>$12.329,10</t>
-  </si>
-  <si>
-    <t>Ojos de sol</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>01-04-2022</t>
-  </si>
-  <si>
-    <t>9789877352818</t>
+    <t>La moneda de hierro</t>
+  </si>
+  <si>
+    <t>julio 2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>9789500765367</t>
+  </si>
+  <si>
+    <t>Las cosas que parecen un error</t>
+  </si>
+  <si>
+    <t>Maia Tarcic</t>
+  </si>
+  <si>
+    <t>febrero 2021</t>
+  </si>
+  <si>
+    <t>01-02-2021</t>
+  </si>
+  <si>
+    <t>9789877801835</t>
+  </si>
+  <si>
+    <t>$11.339,10</t>
+  </si>
+  <si>
+    <t>La colina que ascendemos</t>
+  </si>
+  <si>
+    <t>Amanda Gorman</t>
+  </si>
+  <si>
+    <t>$13.599,00</t>
+  </si>
+  <si>
+    <t>junio 2021</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>9788426410344</t>
+  </si>
+  <si>
+    <t>$13599.00</t>
+  </si>
+  <si>
+    <t>$12.239,10</t>
+  </si>
+  <si>
+    <t>$12.239</t>
+  </si>
+  <si>
+    <t>El último apaga la luz</t>
+  </si>
+  <si>
+    <t>Nicanor Parra</t>
+  </si>
+  <si>
+    <t>$29.999,00</t>
+  </si>
+  <si>
+    <t>466</t>
+  </si>
+  <si>
+    <t>9788426404763</t>
+  </si>
+  <si>
+    <t>$19.599,00</t>
+  </si>
+  <si>
+    <t>$29999.00</t>
   </si>
   <si>
     <t>Rodolfo Fogwill</t>
   </si>
   <si>
-    <t>$29.999,00</t>
-  </si>
-  <si>
     <t>noviembre 2016</t>
   </si>
   <si>
@@ -738,67 +906,109 @@
     <t>9789877382754</t>
   </si>
   <si>
-    <t>$29999.00</t>
+    <t>$26.999,10</t>
   </si>
   <si>
     <t>$26.999</t>
   </si>
   <si>
-    <t>$26.999,10</t>
-  </si>
-  <si>
-    <t>La rosa profunda</t>
-  </si>
-  <si>
-    <t>noviembre 2018</t>
-  </si>
-  <si>
-    <t>01-11-2018</t>
-  </si>
-  <si>
-    <t>9789500762120</t>
-  </si>
-  <si>
-    <t>La colina que ascendemos</t>
-  </si>
-  <si>
-    <t>Amanda Gorman</t>
-  </si>
-  <si>
-    <t>$13.599,00</t>
-  </si>
-  <si>
-    <t>junio 2021</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>01-06-2021</t>
-  </si>
-  <si>
-    <t>9788426410344</t>
-  </si>
-  <si>
-    <t>$13599.00</t>
-  </si>
-  <si>
-    <t>$12.239</t>
-  </si>
-  <si>
-    <t>$12.239,10</t>
-  </si>
-  <si>
-    <t>La moneda de hierro</t>
-  </si>
-  <si>
-    <t>julio 2021</t>
-  </si>
-  <si>
-    <t>01-07-2021</t>
-  </si>
-  <si>
-    <t>9789500765367</t>
+    <t>El viento me lleva</t>
+  </si>
+  <si>
+    <t>Ismael Serrano</t>
+  </si>
+  <si>
+    <t>mayo 2019</t>
+  </si>
+  <si>
+    <t>GR. ILUSTRADOS</t>
+  </si>
+  <si>
+    <t>VARIOS</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>01-05-2019</t>
+  </si>
+  <si>
+    <t>9789502812526</t>
+  </si>
+  <si>
+    <t>Acorn</t>
+  </si>
+  <si>
+    <t>Yoko Ono</t>
+  </si>
+  <si>
+    <t>$38.999,00</t>
+  </si>
+  <si>
+    <t>junio 2014</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>13-06-2014</t>
+  </si>
+  <si>
+    <t>9789870435358</t>
+  </si>
+  <si>
+    <t>$38999.00</t>
+  </si>
+  <si>
+    <t>$35.099,10</t>
+  </si>
+  <si>
+    <t>$35.099</t>
+  </si>
+  <si>
+    <t>Antología en verso y prosa</t>
+  </si>
+  <si>
+    <t>$43.699,00</t>
+  </si>
+  <si>
+    <t>septiembre 2010</t>
+  </si>
+  <si>
+    <t>LENGUA VIVA</t>
+  </si>
+  <si>
+    <t>BREVES ANTOLOGIAS</t>
+  </si>
+  <si>
+    <t>778</t>
+  </si>
+  <si>
+    <t>03-09-2010</t>
+  </si>
+  <si>
+    <t>9788420405599</t>
+  </si>
+  <si>
+    <t>$39.329</t>
+  </si>
+  <si>
+    <t>$43699.00</t>
+  </si>
+  <si>
+    <t>No creo poder tocar el cielo con las manos</t>
+  </si>
+  <si>
+    <t>Safo</t>
+  </si>
+  <si>
+    <t>octubre 2017</t>
+  </si>
+  <si>
+    <t>01-10-2017</t>
+  </si>
+  <si>
+    <t>9788439733171</t>
   </si>
   <si>
     <t>Que cada cosa cruel sea tú que vuelves</t>
@@ -813,28 +1023,133 @@
     <t>9789877690644</t>
   </si>
   <si>
-    <t>Salvo el crepúsculo</t>
-  </si>
-  <si>
-    <t>$23.099,00</t>
-  </si>
-  <si>
-    <t>febrero 2018</t>
-  </si>
-  <si>
-    <t>01-02-2018</t>
-  </si>
-  <si>
-    <t>9789877384178</t>
-  </si>
-  <si>
-    <t>$23099.00</t>
-  </si>
-  <si>
-    <t>$20.789</t>
-  </si>
-  <si>
-    <t>$20.789,10</t>
+    <t>Los trabajos y los días</t>
+  </si>
+  <si>
+    <t>Elvira Hernández</t>
+  </si>
+  <si>
+    <t>$31.499,00</t>
+  </si>
+  <si>
+    <t>septiembre 2017</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>01-09-2017</t>
+  </si>
+  <si>
+    <t>9789568856458</t>
+  </si>
+  <si>
+    <t>$31499.00</t>
+  </si>
+  <si>
+    <t>$28.349,10</t>
+  </si>
+  <si>
+    <t>$28.349</t>
+  </si>
+  <si>
+    <t>Soñando en la mar amarga</t>
+  </si>
+  <si>
+    <t>Federico García Lorca</t>
+  </si>
+  <si>
+    <t>junio 2018</t>
+  </si>
+  <si>
+    <t>01-06-2018</t>
+  </si>
+  <si>
+    <t>9788439733393</t>
+  </si>
+  <si>
+    <t>Libro del anhelo</t>
+  </si>
+  <si>
+    <t>Leonard Cohen</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>9788426404817</t>
+  </si>
+  <si>
+    <t>$19599.00</t>
+  </si>
+  <si>
+    <t>$17.639,10</t>
+  </si>
+  <si>
+    <t>$31.252</t>
+  </si>
+  <si>
+    <t>Poesía</t>
+  </si>
+  <si>
+    <t>Fray Luis de León</t>
+  </si>
+  <si>
+    <t>$7.399,00</t>
+  </si>
+  <si>
+    <t>octubre 2016</t>
+  </si>
+  <si>
+    <t>PENGUIN CLÁSICOS</t>
+  </si>
+  <si>
+    <t>PENGUIN CLASICOS</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>01-10-2016</t>
+  </si>
+  <si>
+    <t>9788491051725</t>
+  </si>
+  <si>
+    <t>$7399.00</t>
+  </si>
+  <si>
+    <t>$6.659</t>
+  </si>
+  <si>
+    <t>Cerrando puntos suspensivos</t>
+  </si>
+  <si>
+    <t>Rozalén</t>
+  </si>
+  <si>
+    <t>$47.899,00</t>
+  </si>
+  <si>
+    <t>9788403518612</t>
+  </si>
+  <si>
+    <t>$47899.00</t>
+  </si>
+  <si>
+    <t>$43.109,10</t>
+  </si>
+  <si>
+    <t>$43.109</t>
+  </si>
+  <si>
+    <t>¡Oh, capitán!, ¡mi capitán!</t>
+  </si>
+  <si>
+    <t>Walt Whitman</t>
+  </si>
+  <si>
+    <t>9788439733386</t>
   </si>
   <si>
     <t>Mi nombre es nosotros</t>
@@ -852,58 +1167,22 @@
     <t>$18899.00</t>
   </si>
   <si>
+    <t>$17.009,10</t>
+  </si>
+  <si>
     <t>$17.009</t>
   </si>
   <si>
-    <t>$17.009,10</t>
-  </si>
-  <si>
-    <t>El viento me lleva</t>
-  </si>
-  <si>
-    <t>Ismael Serrano</t>
-  </si>
-  <si>
-    <t>mayo 2019</t>
-  </si>
-  <si>
-    <t>GR. ILUSTRADOS</t>
-  </si>
-  <si>
-    <t>VARIOS</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>01-05-2019</t>
-  </si>
-  <si>
-    <t>9789502812526</t>
-  </si>
-  <si>
-    <t>El otro, el mismo / Para las seis cuerdas / Elogio de la sombra</t>
-  </si>
-  <si>
-    <t>$15.799,00</t>
-  </si>
-  <si>
-    <t>septiembre 2012</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>01-09-2012</t>
-  </si>
-  <si>
-    <t>9789875668324</t>
-  </si>
-  <si>
-    <t>$15799.00</t>
-  </si>
-  <si>
-    <t>$14.219</t>
+    <t>Poesía de amor. De tus caderas a tus pies quiero hacer un largo viaje</t>
+  </si>
+  <si>
+    <t>Pablo Neruda</t>
+  </si>
+  <si>
+    <t>9788439733164</t>
+  </si>
+  <si>
+    <t>$4.095</t>
   </si>
   <si>
     <t>Ritual de amor</t>
@@ -927,64 +1206,13 @@
     <t>9789877389333</t>
   </si>
   <si>
-    <t>Antología en verso y prosa</t>
-  </si>
-  <si>
-    <t>Gabriela Mistral</t>
-  </si>
-  <si>
-    <t>$43.699,00</t>
-  </si>
-  <si>
-    <t>septiembre 2010</t>
-  </si>
-  <si>
-    <t>LENGUA VIVA</t>
-  </si>
-  <si>
-    <t>BREVES ANTOLOGIAS</t>
-  </si>
-  <si>
-    <t>778</t>
-  </si>
-  <si>
-    <t>03-09-2010</t>
-  </si>
-  <si>
-    <t>9788420405599</t>
-  </si>
-  <si>
-    <t>$43699.00</t>
-  </si>
-  <si>
-    <t>$39.329</t>
-  </si>
-  <si>
-    <t>Las renegadas</t>
-  </si>
-  <si>
-    <t>$21.499,00</t>
-  </si>
-  <si>
-    <t>abril 2019</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>01-04-2019</t>
-  </si>
-  <si>
-    <t>9789568856748</t>
-  </si>
-  <si>
-    <t>$21499.00</t>
-  </si>
-  <si>
-    <t>$19.349</t>
-  </si>
-  <si>
-    <t>$19.349,10</t>
+    <t>Prosa completa</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>9788426402752</t>
   </si>
   <si>
     <t>Yo soy esta tormenta</t>
@@ -1002,210 +1230,12 @@
     <t>$13399.00</t>
   </si>
   <si>
+    <t>$12.059,10</t>
+  </si>
+  <si>
     <t>$12.059</t>
   </si>
   <si>
-    <t>$12.059,10</t>
-  </si>
-  <si>
-    <t>El último apaga la luz</t>
-  </si>
-  <si>
-    <t>Nicanor Parra</t>
-  </si>
-  <si>
-    <t>466</t>
-  </si>
-  <si>
-    <t>9788426404763</t>
-  </si>
-  <si>
-    <t>$19.599,00</t>
-  </si>
-  <si>
-    <t>Libro del anhelo</t>
-  </si>
-  <si>
-    <t>Leonard Cohen</t>
-  </si>
-  <si>
-    <t>junio 2018</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>01-06-2018</t>
-  </si>
-  <si>
-    <t>9788426404817</t>
-  </si>
-  <si>
-    <t>$19599.00</t>
-  </si>
-  <si>
-    <t>$31.252</t>
-  </si>
-  <si>
-    <t>$17.639,10</t>
-  </si>
-  <si>
-    <t>¡Oh, capitán!, ¡mi capitán!</t>
-  </si>
-  <si>
-    <t>Walt Whitman</t>
-  </si>
-  <si>
-    <t>octubre 2017</t>
-  </si>
-  <si>
-    <t>01-10-2017</t>
-  </si>
-  <si>
-    <t>9788439733386</t>
-  </si>
-  <si>
-    <t>No creo poder tocar el cielo con las manos</t>
-  </si>
-  <si>
-    <t>Safo</t>
-  </si>
-  <si>
-    <t>9788439733171</t>
-  </si>
-  <si>
-    <t>Prosa completa</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>9788426402752</t>
-  </si>
-  <si>
-    <t>Los trabajos y los días</t>
-  </si>
-  <si>
-    <t>Elvira Hernández</t>
-  </si>
-  <si>
-    <t>$31.499,00</t>
-  </si>
-  <si>
-    <t>septiembre 2017</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>01-09-2017</t>
-  </si>
-  <si>
-    <t>9789568856458</t>
-  </si>
-  <si>
-    <t>$31499.00</t>
-  </si>
-  <si>
-    <t>$28.349</t>
-  </si>
-  <si>
-    <t>$28.349,10</t>
-  </si>
-  <si>
-    <t>Soñando en la mar amarga</t>
-  </si>
-  <si>
-    <t>Federico García Lorca</t>
-  </si>
-  <si>
-    <t>9788439733393</t>
-  </si>
-  <si>
-    <t>Cerrando puntos suspensivos</t>
-  </si>
-  <si>
-    <t>Rozalén</t>
-  </si>
-  <si>
-    <t>$47.899,00</t>
-  </si>
-  <si>
-    <t>9788403518612</t>
-  </si>
-  <si>
-    <t>$47899.00</t>
-  </si>
-  <si>
-    <t>$43.109</t>
-  </si>
-  <si>
-    <t>$43.109,10</t>
-  </si>
-  <si>
-    <t>Acorn</t>
-  </si>
-  <si>
-    <t>Yoko Ono</t>
-  </si>
-  <si>
-    <t>$38.999,00</t>
-  </si>
-  <si>
-    <t>junio 2014</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>13-06-2014</t>
-  </si>
-  <si>
-    <t>9789870435358</t>
-  </si>
-  <si>
-    <t>$38999.00</t>
-  </si>
-  <si>
-    <t>$35.099</t>
-  </si>
-  <si>
-    <t>$35.099,10</t>
-  </si>
-  <si>
-    <t>Poesía</t>
-  </si>
-  <si>
-    <t>Fray Luis de León</t>
-  </si>
-  <si>
-    <t>$7.399,00</t>
-  </si>
-  <si>
-    <t>octubre 2016</t>
-  </si>
-  <si>
-    <t>PENGUIN CLÁSICOS</t>
-  </si>
-  <si>
-    <t>PENGUIN CLASICOS</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>01-10-2016</t>
-  </si>
-  <si>
-    <t>9788491051725</t>
-  </si>
-  <si>
-    <t>$7399.00</t>
-  </si>
-  <si>
-    <t>$6.659</t>
-  </si>
-  <si>
     <t>Los reyes</t>
   </si>
   <si>
@@ -1218,6 +1248,123 @@
     <t>$12.999,00</t>
   </si>
   <si>
+    <t>Estados de un exanónimo</t>
+  </si>
+  <si>
+    <t>Porta</t>
+  </si>
+  <si>
+    <t>9788403517844</t>
+  </si>
+  <si>
+    <t>Francisco De Quevedo</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>9788491051749</t>
+  </si>
+  <si>
+    <t>La balada de la cárcel de Reading (Poesía Portátil)</t>
+  </si>
+  <si>
+    <t>Oscar Wilde</t>
+  </si>
+  <si>
+    <t>octubre 2018</t>
+  </si>
+  <si>
+    <t>01-10-2018</t>
+  </si>
+  <si>
+    <t>9788439733607</t>
+  </si>
+  <si>
+    <t>No bastó con querer</t>
+  </si>
+  <si>
+    <t>Loreto Sesma</t>
+  </si>
+  <si>
+    <t>10-04-2022</t>
+  </si>
+  <si>
+    <t>9789877352863</t>
+  </si>
+  <si>
+    <t>42 flores del mal</t>
+  </si>
+  <si>
+    <t>Charles Baudelaire</t>
+  </si>
+  <si>
+    <t>9789877692167</t>
+  </si>
+  <si>
+    <t>Con tal de verte volar</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>9789877352894</t>
+  </si>
+  <si>
+    <t>Esta Boca Es Mia (Edicion Completa)</t>
+  </si>
+  <si>
+    <t>Joaquín Sabina</t>
+  </si>
+  <si>
+    <t>$35.999,00</t>
+  </si>
+  <si>
+    <t>enero 2017</t>
+  </si>
+  <si>
+    <t>EDICIONES B</t>
+  </si>
+  <si>
+    <t>576</t>
+  </si>
+  <si>
+    <t>04-01-2017</t>
+  </si>
+  <si>
+    <t>9788466646314</t>
+  </si>
+  <si>
+    <t>$35999.00</t>
+  </si>
+  <si>
+    <t>$32.399</t>
+  </si>
+  <si>
+    <t>Tu vida rompiéndose</t>
+  </si>
+  <si>
+    <t>Raúl Zurita</t>
+  </si>
+  <si>
+    <t>$27.799,00</t>
+  </si>
+  <si>
+    <t>abril 2017</t>
+  </si>
+  <si>
+    <t>01-04-2017</t>
+  </si>
+  <si>
+    <t>9789568856243</t>
+  </si>
+  <si>
+    <t>$27799.00</t>
+  </si>
+  <si>
+    <t>$29.024</t>
+  </si>
+  <si>
     <t>Luis De Gongora</t>
   </si>
   <si>
@@ -1236,169 +1383,22 @@
     <t>$11.159</t>
   </si>
   <si>
-    <t>Poesía de amor. De tus caderas a tus pies quiero hacer un largo viaje</t>
-  </si>
-  <si>
-    <t>Pablo Neruda</t>
-  </si>
-  <si>
-    <t>9788439733164</t>
-  </si>
-  <si>
-    <t>$4.095</t>
-  </si>
-  <si>
-    <t>Estados de un exanónimo</t>
-  </si>
-  <si>
-    <t>Porta</t>
-  </si>
-  <si>
-    <t>9788403517844</t>
-  </si>
-  <si>
-    <t>La balada de la cárcel de Reading (Poesía Portátil)</t>
-  </si>
-  <si>
-    <t>Oscar Wilde</t>
-  </si>
-  <si>
-    <t>octubre 2018</t>
-  </si>
-  <si>
-    <t>01-10-2018</t>
-  </si>
-  <si>
-    <t>9788439733607</t>
+    <t>Ahora que ya bailas</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>9789877352887</t>
+  </si>
+  <si>
+    <t>$21.999,00</t>
   </si>
   <si>
     <t>Garcilaso de La Vega</t>
   </si>
   <si>
-    <t>264</t>
-  </si>
-  <si>
     <t>9788491050285</t>
-  </si>
-  <si>
-    <t>Las cosas que parecen un error</t>
-  </si>
-  <si>
-    <t>Maia Tarcic</t>
-  </si>
-  <si>
-    <t>febrero 2021</t>
-  </si>
-  <si>
-    <t>01-02-2021</t>
-  </si>
-  <si>
-    <t>9789877801835</t>
-  </si>
-  <si>
-    <t>$11.339,10</t>
-  </si>
-  <si>
-    <t>Francisco De Quevedo</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>9788491051749</t>
-  </si>
-  <si>
-    <t>Tu vida rompiéndose</t>
-  </si>
-  <si>
-    <t>Raúl Zurita</t>
-  </si>
-  <si>
-    <t>$27.799,00</t>
-  </si>
-  <si>
-    <t>abril 2017</t>
-  </si>
-  <si>
-    <t>01-04-2017</t>
-  </si>
-  <si>
-    <t>9789568856243</t>
-  </si>
-  <si>
-    <t>$27799.00</t>
-  </si>
-  <si>
-    <t>$29.024</t>
-  </si>
-  <si>
-    <t>Esta Boca Es Mia (Edicion Completa)</t>
-  </si>
-  <si>
-    <t>Joaquín Sabina</t>
-  </si>
-  <si>
-    <t>$35.999,00</t>
-  </si>
-  <si>
-    <t>enero 2017</t>
-  </si>
-  <si>
-    <t>EDICIONES B</t>
-  </si>
-  <si>
-    <t>576</t>
-  </si>
-  <si>
-    <t>04-01-2017</t>
-  </si>
-  <si>
-    <t>9788466646314</t>
-  </si>
-  <si>
-    <t>$35999.00</t>
-  </si>
-  <si>
-    <t>$32.399</t>
-  </si>
-  <si>
-    <t>No bastó con querer</t>
-  </si>
-  <si>
-    <t>Loreto Sesma</t>
-  </si>
-  <si>
-    <t>10-04-2022</t>
-  </si>
-  <si>
-    <t>9789877352863</t>
-  </si>
-  <si>
-    <t>42 flores del mal</t>
-  </si>
-  <si>
-    <t>Charles Baudelaire</t>
-  </si>
-  <si>
-    <t>9789877692167</t>
-  </si>
-  <si>
-    <t>Ahora que ya bailas</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>9789877352887</t>
-  </si>
-  <si>
-    <t>$21.999,00</t>
-  </si>
-  <si>
-    <t>Con tal de verte volar</t>
-  </si>
-  <si>
-    <t>9789877352894</t>
   </si>
 </sst>
 </file>
@@ -2265,16 +2265,16 @@
         <v>40</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S2" t="s">
         <v>30</v>
       </c>
       <c r="W2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Y2" t="s">
         <v>30</v>
@@ -2327,7 +2327,7 @@
         <v>54</v>
       </c>
       <c r="R3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S3" t="s">
         <v>46</v>
@@ -2347,22 +2347,22 @@
         <v>55</v>
       </c>
       <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>56</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>57</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>58</v>
       </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
         <v>35</v>
@@ -2374,57 +2374,48 @@
         <v>37</v>
       </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="N4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q4" t="s">
         <v>63</v>
       </c>
       <c r="R4" t="s">
-        <v>43</v>
-      </c>
-      <c r="S4" t="s">
-        <v>57</v>
-      </c>
-      <c r="U4" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="W4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s">
         <v>35</v>
@@ -2436,37 +2427,37 @@
         <v>37</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q5" t="s">
         <v>74</v>
       </c>
       <c r="R5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="U5" t="s">
+        <v>67</v>
+      </c>
+      <c r="W5" t="s">
         <v>75</v>
       </c>
-      <c r="V5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W5" t="s">
-        <v>73</v>
-      </c>
       <c r="Y5" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -2513,16 +2504,16 @@
         <v>86</v>
       </c>
       <c r="Q6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S6" t="s">
         <v>78</v>
       </c>
       <c r="W6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y6" t="s">
         <v>78</v>
@@ -2536,7 +2527,7 @@
         <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
         <v>90</v>
@@ -2575,25 +2566,25 @@
         <v>63</v>
       </c>
       <c r="R7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U7" t="s">
         <v>96</v>
       </c>
       <c r="V7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -2601,22 +2592,22 @@
         <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
         <v>98</v>
       </c>
-      <c r="D8" t="s">
-        <v>99</v>
-      </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
         <v>35</v>
@@ -2628,60 +2619,60 @@
         <v>37</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="M8" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q8" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="R8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S8" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="U8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="V8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W8" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H9" t="s">
         <v>35</v>
@@ -2693,60 +2684,57 @@
         <v>37</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>108</v>
+      </c>
+      <c r="R9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S9" t="s">
+        <v>102</v>
+      </c>
+      <c r="W9" t="s">
         <v>107</v>
       </c>
-      <c r="M9" t="s">
-        <v>110</v>
-      </c>
-      <c r="N9" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>116</v>
-      </c>
-      <c r="R9" t="s">
-        <v>43</v>
-      </c>
-      <c r="S9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U9" t="s">
-        <v>117</v>
-      </c>
-      <c r="V9" t="s">
-        <v>43</v>
-      </c>
-      <c r="W9" t="s">
-        <v>115</v>
-      </c>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>102</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H10" t="s">
         <v>35</v>
@@ -2758,63 +2746,63 @@
         <v>37</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" t="s">
+        <v>113</v>
+      </c>
+      <c r="N10" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>120</v>
+      </c>
+      <c r="R10" t="s">
+        <v>42</v>
+      </c>
+      <c r="S10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U10" t="s">
         <v>119</v>
       </c>
-      <c r="M10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N10" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>126</v>
-      </c>
-      <c r="R10" t="s">
-        <v>127</v>
-      </c>
-      <c r="S10" t="s">
-        <v>120</v>
-      </c>
-      <c r="U10" t="s">
-        <v>128</v>
-      </c>
       <c r="V10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W10" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="Y10" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="AA10" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H11" t="s">
         <v>35</v>
@@ -2826,57 +2814,63 @@
         <v>37</v>
       </c>
       <c r="K11" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q11" t="s">
         <v>129</v>
       </c>
-      <c r="M11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>136</v>
-      </c>
       <c r="R11" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="S11" t="s">
-        <v>130</v>
+        <v>123</v>
+      </c>
+      <c r="U11" t="s">
+        <v>128</v>
+      </c>
+      <c r="V11" t="s">
+        <v>42</v>
       </c>
       <c r="W11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Y11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="AA11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D12" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H12" t="s">
         <v>35</v>
@@ -2888,128 +2882,119 @@
         <v>37</v>
       </c>
       <c r="K12" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L12" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" t="s">
         <v>138</v>
       </c>
-      <c r="M12" t="s">
-        <v>110</v>
-      </c>
-      <c r="N12" t="s">
-        <v>144</v>
-      </c>
       <c r="Q12" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="R12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S12" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="U12" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="V12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W12" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y12" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:28">
       <c r="A13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" t="s">
         <v>148</v>
       </c>
-      <c r="B13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="H13" t="s">
         <v>149</v>
       </c>
-      <c r="D13" t="s">
-        <v>150</v>
-      </c>
-      <c r="E13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" t="s">
-        <v>151</v>
-      </c>
-      <c r="H13" t="s">
-        <v>35</v>
-      </c>
       <c r="I13" t="s">
-        <v>152</v>
+        <v>36</v>
       </c>
       <c r="J13" t="s">
         <v>37</v>
       </c>
       <c r="K13" t="s">
+        <v>150</v>
+      </c>
+      <c r="L13" t="s">
+        <v>143</v>
+      </c>
+      <c r="M13" t="s">
+        <v>151</v>
+      </c>
+      <c r="N13" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>155</v>
+      </c>
+      <c r="R13" t="s">
+        <v>156</v>
+      </c>
+      <c r="U13" t="s">
+        <v>154</v>
+      </c>
+      <c r="V13" t="s">
+        <v>42</v>
+      </c>
+      <c r="W13" t="s">
         <v>153</v>
       </c>
-      <c r="L13" t="s">
-        <v>77</v>
-      </c>
-      <c r="M13" t="s">
-        <v>91</v>
-      </c>
-      <c r="N13" t="s">
-        <v>154</v>
-      </c>
-      <c r="O13" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>156</v>
-      </c>
-      <c r="R13" t="s">
-        <v>43</v>
-      </c>
-      <c r="S13" t="s">
-        <v>149</v>
-      </c>
-      <c r="U13" t="s">
-        <v>158</v>
-      </c>
-      <c r="V13" t="s">
-        <v>43</v>
-      </c>
-      <c r="W13" t="s">
-        <v>155</v>
-      </c>
       <c r="Y13" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:28">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>162</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="G14" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H14" t="s">
         <v>35</v>
@@ -3021,63 +3006,66 @@
         <v>37</v>
       </c>
       <c r="K14" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L14" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" t="s">
+        <v>91</v>
+      </c>
+      <c r="N14" t="s">
         <v>160</v>
       </c>
-      <c r="M14" t="s">
-        <v>110</v>
-      </c>
-      <c r="N14" t="s">
-        <v>165</v>
-      </c>
       <c r="Q14" t="s">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="R14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S14" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="U14" t="s">
-        <v>161</v>
+        <v>96</v>
+      </c>
+      <c r="V14" t="s">
+        <v>42</v>
       </c>
       <c r="W14" t="s">
-        <v>166</v>
+        <v>64</v>
       </c>
       <c r="Y14" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="AA14" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D15" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E15" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="F15" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="G15" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H15" t="s">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="I15" t="s">
         <v>36</v>
@@ -3086,57 +3074,60 @@
         <v>37</v>
       </c>
       <c r="K15" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="M15" t="s">
-        <v>177</v>
+        <v>113</v>
       </c>
       <c r="N15" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="Q15" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="R15" t="s">
-        <v>181</v>
+        <v>42</v>
+      </c>
+      <c r="S15" t="s">
+        <v>162</v>
       </c>
       <c r="U15" t="s">
-        <v>182</v>
-      </c>
-      <c r="V15" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="W15" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="Y15" t="s">
-        <v>170</v>
+        <v>162</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:28">
       <c r="A16" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s">
-        <v>184</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>187</v>
+        <v>70</v>
       </c>
       <c r="G16" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="H16" t="s">
         <v>35</v>
@@ -3148,48 +3139,51 @@
         <v>37</v>
       </c>
       <c r="K16" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s">
-        <v>184</v>
+        <v>66</v>
       </c>
       <c r="M16" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="N16" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="Q16" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="R16" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="S16" t="s">
+        <v>67</v>
       </c>
       <c r="U16" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="V16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>57</v>
+        <v>75</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s">
         <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="D17" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="E17" t="s">
         <v>91</v>
@@ -3198,19 +3192,19 @@
         <v>92</v>
       </c>
       <c r="G17" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="H17" t="s">
         <v>35</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="J17" t="s">
         <v>37</v>
       </c>
       <c r="K17" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s">
         <v>77</v>
@@ -3219,187 +3213,187 @@
         <v>91</v>
       </c>
       <c r="N17" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="O17" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="Q17" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="R17" t="s">
-        <v>199</v>
+        <v>42</v>
       </c>
       <c r="S17" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="U17" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="V17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W17" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="Y17" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>186</v>
       </c>
       <c r="D18" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>203</v>
+        <v>115</v>
       </c>
       <c r="H18" t="s">
         <v>35</v>
       </c>
       <c r="I18" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="J18" t="s">
         <v>37</v>
       </c>
       <c r="K18" t="s">
+        <v>188</v>
+      </c>
+      <c r="L18" t="s">
+        <v>185</v>
+      </c>
+      <c r="M18" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" t="s">
         <v>189</v>
       </c>
-      <c r="L18" t="s">
-        <v>77</v>
-      </c>
-      <c r="M18" t="s">
-        <v>91</v>
-      </c>
-      <c r="N18" t="s">
-        <v>204</v>
-      </c>
       <c r="Q18" t="s">
-        <v>63</v>
+        <v>191</v>
       </c>
       <c r="R18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S18" t="s">
-        <v>57</v>
-      </c>
-      <c r="U18" t="s">
-        <v>96</v>
-      </c>
-      <c r="V18" t="s">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c r="W18" t="s">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="Y18" t="s">
-        <v>57</v>
+        <v>186</v>
       </c>
       <c r="AA18" t="s">
-        <v>57</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="D19" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="G19" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="H19" t="s">
         <v>35</v>
       </c>
       <c r="I19" t="s">
-        <v>152</v>
+        <v>36</v>
       </c>
       <c r="J19" t="s">
         <v>37</v>
       </c>
       <c r="K19" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="M19" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="N19" t="s">
-        <v>210</v>
+        <v>197</v>
+      </c>
+      <c r="O19" t="s">
+        <v>199</v>
       </c>
       <c r="Q19" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="R19" t="s">
-        <v>43</v>
+        <v>202</v>
       </c>
       <c r="S19" t="s">
-        <v>206</v>
+        <v>193</v>
+      </c>
+      <c r="U19" t="s">
+        <v>200</v>
+      </c>
+      <c r="V19" t="s">
+        <v>42</v>
       </c>
       <c r="W19" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="Y19" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="AA19" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>205</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>206</v>
       </c>
       <c r="E20" t="s">
-        <v>186</v>
+        <v>113</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="G20" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="H20" t="s">
         <v>35</v>
@@ -3411,57 +3405,60 @@
         <v>37</v>
       </c>
       <c r="K20" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="M20" t="s">
-        <v>186</v>
+        <v>113</v>
       </c>
       <c r="N20" t="s">
-        <v>216</v>
-      </c>
-      <c r="O20" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="Q20" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="R20" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="S20" t="s">
+        <v>205</v>
       </c>
       <c r="U20" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="V20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W20" t="s">
-        <v>62</v>
+        <v>211</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D21" t="s">
+        <v>217</v>
+      </c>
+      <c r="E21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" t="s">
         <v>218</v>
-      </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" t="s">
-        <v>186</v>
-      </c>
-      <c r="F21" t="s">
-        <v>187</v>
-      </c>
-      <c r="G21" t="s">
-        <v>188</v>
       </c>
       <c r="H21" t="s">
         <v>35</v>
@@ -3473,48 +3470,60 @@
         <v>37</v>
       </c>
       <c r="K21" t="s">
+        <v>219</v>
+      </c>
+      <c r="L21" t="s">
         <v>215</v>
       </c>
-      <c r="L21" t="s">
-        <v>29</v>
-      </c>
       <c r="M21" t="s">
-        <v>186</v>
+        <v>113</v>
       </c>
       <c r="N21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q21" t="s">
-        <v>63</v>
+        <v>223</v>
       </c>
       <c r="R21" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="S21" t="s">
+        <v>216</v>
+      </c>
+      <c r="U21" t="s">
+        <v>222</v>
+      </c>
+      <c r="V21" t="s">
+        <v>42</v>
       </c>
       <c r="W21" t="s">
-        <v>62</v>
+        <v>221</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s">
-        <v>221</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D22" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E22" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="F22" t="s">
-        <v>186</v>
+        <v>70</v>
       </c>
       <c r="G22" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="H22" t="s">
         <v>35</v>
@@ -3526,60 +3535,60 @@
         <v>37</v>
       </c>
       <c r="K22" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L22" t="s">
-        <v>221</v>
+        <v>66</v>
       </c>
       <c r="M22" t="s">
-        <v>186</v>
+        <v>69</v>
       </c>
       <c r="N22" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>232</v>
+      </c>
+      <c r="R22" t="s">
+        <v>42</v>
+      </c>
+      <c r="S22" t="s">
         <v>225</v>
       </c>
-      <c r="Q22" t="s">
-        <v>227</v>
-      </c>
-      <c r="R22" t="s">
-        <v>43</v>
-      </c>
-      <c r="S22" t="s">
-        <v>222</v>
-      </c>
       <c r="U22" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="V22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W22" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Y22" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>234</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>235</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="H23" t="s">
         <v>35</v>
@@ -3591,60 +3600,57 @@
         <v>37</v>
       </c>
       <c r="K23" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="L23" t="s">
-        <v>65</v>
+        <v>234</v>
       </c>
       <c r="M23" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="N23" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q23" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="R23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S23" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="U23" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="W23" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="Y23" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C24" t="s">
-        <v>234</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>235</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="F24" t="s">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="H24" t="s">
         <v>35</v>
@@ -3656,122 +3662,116 @@
         <v>37</v>
       </c>
       <c r="K24" t="s">
-        <v>236</v>
+        <v>94</v>
       </c>
       <c r="L24" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="M24" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="N24" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q24" t="s">
-        <v>239</v>
+        <v>63</v>
       </c>
       <c r="R24" t="s">
-        <v>43</v>
-      </c>
-      <c r="S24" t="s">
-        <v>234</v>
+        <v>42</v>
       </c>
       <c r="U24" t="s">
-        <v>240</v>
+        <v>96</v>
       </c>
       <c r="V24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W24" t="s">
-        <v>238</v>
+        <v>64</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>243</v>
       </c>
       <c r="D25" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="H25" t="s">
         <v>35</v>
       </c>
       <c r="I25" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="J25" t="s">
         <v>37</v>
       </c>
       <c r="K25" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s">
         <v>77</v>
       </c>
       <c r="M25" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="N25" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q25" t="s">
-        <v>63</v>
+        <v>248</v>
       </c>
       <c r="R25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S25" t="s">
-        <v>57</v>
-      </c>
-      <c r="U25" t="s">
-        <v>96</v>
-      </c>
-      <c r="V25" t="s">
-        <v>43</v>
+        <v>243</v>
       </c>
       <c r="W25" t="s">
-        <v>62</v>
+        <v>249</v>
       </c>
       <c r="Y25" t="s">
-        <v>57</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:27">
       <c r="A26" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B26" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C26" t="s">
-        <v>247</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>248</v>
+        <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G26" t="s">
-        <v>249</v>
+        <v>60</v>
       </c>
       <c r="H26" t="s">
         <v>35</v>
@@ -3783,60 +3783,57 @@
         <v>37</v>
       </c>
       <c r="K26" t="s">
-        <v>250</v>
+        <v>61</v>
       </c>
       <c r="L26" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="M26" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="N26" t="s">
-        <v>251</v>
+        <v>252</v>
+      </c>
+      <c r="O26" t="s">
+        <v>253</v>
       </c>
       <c r="Q26" t="s">
-        <v>253</v>
+        <v>63</v>
       </c>
       <c r="R26" t="s">
-        <v>43</v>
-      </c>
-      <c r="S26" t="s">
-        <v>247</v>
+        <v>42</v>
       </c>
       <c r="U26" t="s">
-        <v>254</v>
+        <v>96</v>
       </c>
       <c r="V26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W26" t="s">
-        <v>252</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>247</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:27">
       <c r="A27" t="s">
+        <v>254</v>
+      </c>
+      <c r="B27" t="s">
         <v>255</v>
       </c>
-      <c r="B27" t="s">
-        <v>77</v>
-      </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="D27" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="F27" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="G27" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="H27" t="s">
         <v>35</v>
@@ -3848,60 +3845,60 @@
         <v>37</v>
       </c>
       <c r="K27" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L27" t="s">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="M27" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="N27" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q27" t="s">
-        <v>63</v>
+        <v>262</v>
       </c>
       <c r="R27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S27" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="U27" t="s">
-        <v>96</v>
+        <v>261</v>
       </c>
       <c r="V27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W27" t="s">
-        <v>62</v>
+        <v>260</v>
       </c>
       <c r="Y27" t="s">
-        <v>57</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:27">
       <c r="A28" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E28" t="s">
-        <v>186</v>
+        <v>91</v>
       </c>
       <c r="F28" t="s">
-        <v>187</v>
+        <v>92</v>
       </c>
       <c r="G28" t="s">
-        <v>188</v>
+        <v>60</v>
       </c>
       <c r="H28" t="s">
         <v>35</v>
@@ -3913,42 +3910,60 @@
         <v>37</v>
       </c>
       <c r="K28" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="M28" t="s">
-        <v>186</v>
+        <v>91</v>
       </c>
       <c r="N28" t="s">
-        <v>262</v>
+        <v>266</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>63</v>
+      </c>
+      <c r="R28" t="s">
+        <v>42</v>
+      </c>
+      <c r="S28" t="s">
+        <v>56</v>
+      </c>
+      <c r="U28" t="s">
+        <v>96</v>
+      </c>
+      <c r="V28" t="s">
+        <v>42</v>
       </c>
       <c r="W28" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:27">
       <c r="A29" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s">
-        <v>160</v>
+        <v>268</v>
       </c>
       <c r="C29" t="s">
-        <v>264</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E29" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="G29" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="H29" t="s">
         <v>35</v>
@@ -3960,63 +3975,60 @@
         <v>37</v>
       </c>
       <c r="K29" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L29" t="s">
-        <v>160</v>
+        <v>268</v>
       </c>
       <c r="M29" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="N29" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q29" t="s">
-        <v>269</v>
+        <v>54</v>
       </c>
       <c r="R29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S29" t="s">
-        <v>264</v>
+        <v>46</v>
       </c>
       <c r="U29" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="V29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W29" t="s">
-        <v>268</v>
+        <v>53</v>
       </c>
       <c r="Y29" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>264</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:27">
       <c r="A30" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B30" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="C30" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D30" t="s">
-        <v>193</v>
+        <v>276</v>
       </c>
       <c r="E30" t="s">
         <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H30" t="s">
         <v>35</v>
@@ -4028,63 +4040,60 @@
         <v>37</v>
       </c>
       <c r="K30" t="s">
-        <v>195</v>
+        <v>278</v>
       </c>
       <c r="L30" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="M30" t="s">
         <v>32</v>
       </c>
       <c r="N30" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q30" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="R30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S30" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="U30" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="V30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W30" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y30" t="s">
         <v>275</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:27">
       <c r="A31" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B31" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C31" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="D31" t="s">
-        <v>280</v>
+        <v>187</v>
       </c>
       <c r="E31" t="s">
-        <v>281</v>
+        <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>282</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H31" t="s">
         <v>35</v>
@@ -4096,122 +4105,110 @@
         <v>37</v>
       </c>
       <c r="K31" t="s">
+        <v>188</v>
+      </c>
+      <c r="L31" t="s">
         <v>284</v>
       </c>
-      <c r="L31" t="s">
-        <v>279</v>
-      </c>
       <c r="M31" t="s">
-        <v>281</v>
+        <v>32</v>
       </c>
       <c r="N31" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>253</v>
-      </c>
-      <c r="R31" t="s">
-        <v>43</v>
-      </c>
-      <c r="S31" t="s">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="U31" t="s">
-        <v>254</v>
-      </c>
-      <c r="V31" t="s">
-        <v>43</v>
+        <v>288</v>
       </c>
       <c r="W31" t="s">
-        <v>252</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>247</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:27">
       <c r="A32" t="s">
-        <v>286</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="C32" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D32" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E32" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="F32" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="G32" t="s">
-        <v>289</v>
+        <v>34</v>
       </c>
       <c r="H32" t="s">
         <v>35</v>
       </c>
       <c r="I32" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="J32" t="s">
         <v>37</v>
       </c>
       <c r="K32" t="s">
+        <v>292</v>
+      </c>
+      <c r="L32" t="s">
         <v>290</v>
       </c>
-      <c r="L32" t="s">
-        <v>77</v>
-      </c>
       <c r="M32" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="N32" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q32" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="R32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S32" t="s">
-        <v>287</v>
+        <v>285</v>
+      </c>
+      <c r="U32" t="s">
+        <v>294</v>
+      </c>
+      <c r="V32" t="s">
+        <v>42</v>
       </c>
       <c r="W32" t="s">
-        <v>292</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:27">
       <c r="A33" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B33" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C33" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D33" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E33" t="s">
-        <v>172</v>
+        <v>299</v>
       </c>
       <c r="F33" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G33" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H33" t="s">
-        <v>297</v>
+        <v>35</v>
       </c>
       <c r="I33" t="s">
         <v>36</v>
@@ -4220,63 +4217,60 @@
         <v>37</v>
       </c>
       <c r="K33" t="s">
+        <v>302</v>
+      </c>
+      <c r="L33" t="s">
+        <v>297</v>
+      </c>
+      <c r="M33" t="s">
         <v>299</v>
       </c>
-      <c r="L33" t="s">
-        <v>295</v>
-      </c>
-      <c r="M33" t="s">
-        <v>177</v>
-      </c>
       <c r="N33" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q33" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="R33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S33" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="U33" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="V33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W33" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="Y33" t="s">
-        <v>247</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:27">
       <c r="A34" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B34" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C34" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D34" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E34" t="s">
-        <v>305</v>
+        <v>69</v>
       </c>
       <c r="F34" t="s">
-        <v>306</v>
+        <v>69</v>
       </c>
       <c r="G34" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H34" t="s">
         <v>35</v>
@@ -4288,51 +4282,60 @@
         <v>37</v>
       </c>
       <c r="K34" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L34" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M34" t="s">
-        <v>305</v>
+        <v>69</v>
       </c>
       <c r="N34" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q34" t="s">
+        <v>313</v>
+      </c>
+      <c r="R34" t="s">
+        <v>42</v>
+      </c>
+      <c r="S34" t="s">
+        <v>306</v>
+      </c>
+      <c r="U34" t="s">
+        <v>312</v>
+      </c>
+      <c r="V34" t="s">
+        <v>42</v>
+      </c>
+      <c r="W34" t="s">
         <v>311</v>
       </c>
-      <c r="R34" t="s">
-        <v>43</v>
-      </c>
-      <c r="W34" t="s">
-        <v>310</v>
-      </c>
       <c r="Y34" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="1:27">
       <c r="A35" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B35" t="s">
-        <v>302</v>
+        <v>133</v>
       </c>
       <c r="C35" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D35" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>317</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>318</v>
       </c>
       <c r="G35" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H35" t="s">
         <v>35</v>
@@ -4344,57 +4347,51 @@
         <v>37</v>
       </c>
       <c r="K35" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L35" t="s">
-        <v>302</v>
+        <v>133</v>
       </c>
       <c r="M35" t="s">
-        <v>32</v>
+        <v>317</v>
       </c>
       <c r="N35" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q35" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="R35" t="s">
-        <v>43</v>
-      </c>
-      <c r="S35" t="s">
-        <v>313</v>
-      </c>
-      <c r="U35" t="s">
-        <v>320</v>
-      </c>
-      <c r="V35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W35" t="s">
-        <v>318</v>
+        <v>323</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:27">
       <c r="A36" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B36" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C36" t="s">
-        <v>323</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>326</v>
       </c>
       <c r="E36" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G36" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="H36" t="s">
         <v>35</v>
@@ -4406,63 +4403,48 @@
         <v>37</v>
       </c>
       <c r="K36" t="s">
-        <v>94</v>
+        <v>327</v>
       </c>
       <c r="L36" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="M36" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="N36" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q36" t="s">
-        <v>326</v>
+        <v>63</v>
       </c>
       <c r="R36" t="s">
-        <v>43</v>
-      </c>
-      <c r="S36" t="s">
-        <v>323</v>
-      </c>
-      <c r="U36" t="s">
-        <v>327</v>
-      </c>
-      <c r="V36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W36" t="s">
-        <v>325</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>323</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>323</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:27">
       <c r="A37" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B37" t="s">
-        <v>329</v>
+        <v>110</v>
       </c>
       <c r="C37" t="s">
-        <v>234</v>
+        <v>56</v>
       </c>
       <c r="D37" t="s">
-        <v>207</v>
+        <v>330</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="G37" t="s">
-        <v>330</v>
+        <v>60</v>
       </c>
       <c r="H37" t="s">
         <v>35</v>
@@ -4474,22 +4456,19 @@
         <v>37</v>
       </c>
       <c r="K37" t="s">
-        <v>209</v>
+        <v>331</v>
       </c>
       <c r="L37" t="s">
-        <v>329</v>
+        <v>110</v>
       </c>
       <c r="M37" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="N37" t="s">
-        <v>331</v>
-      </c>
-      <c r="U37" t="s">
         <v>332</v>
       </c>
       <c r="W37" t="s">
-        <v>238</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -4500,19 +4479,19 @@
         <v>334</v>
       </c>
       <c r="C38" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D38" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E38" t="s">
         <v>32</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H38" t="s">
         <v>35</v>
@@ -4524,7 +4503,7 @@
         <v>37</v>
       </c>
       <c r="K38" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L38" t="s">
         <v>334</v>
@@ -4533,45 +4512,51 @@
         <v>32</v>
       </c>
       <c r="N38" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q38" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="R38" t="s">
-        <v>199</v>
+        <v>42</v>
+      </c>
+      <c r="S38" t="s">
+        <v>335</v>
       </c>
       <c r="U38" t="s">
         <v>341</v>
       </c>
       <c r="V38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W38" t="s">
-        <v>339</v>
+        <v>340</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:27">
       <c r="A39" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B39" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E39" t="s">
-        <v>186</v>
+        <v>58</v>
       </c>
       <c r="F39" t="s">
-        <v>187</v>
+        <v>59</v>
       </c>
       <c r="G39" t="s">
-        <v>188</v>
+        <v>60</v>
       </c>
       <c r="H39" t="s">
         <v>35</v>
@@ -4583,54 +4568,60 @@
         <v>37</v>
       </c>
       <c r="K39" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L39" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M39" t="s">
-        <v>186</v>
+        <v>58</v>
       </c>
       <c r="N39" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q39" t="s">
         <v>63</v>
       </c>
       <c r="R39" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="S39" t="s">
+        <v>56</v>
+      </c>
+      <c r="U39" t="s">
+        <v>96</v>
+      </c>
+      <c r="V39" t="s">
+        <v>42</v>
       </c>
       <c r="W39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y39" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:27">
       <c r="A40" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B40" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>288</v>
       </c>
       <c r="D40" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E40" t="s">
-        <v>186</v>
+        <v>32</v>
       </c>
       <c r="F40" t="s">
-        <v>187</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>188</v>
+        <v>350</v>
       </c>
       <c r="H40" t="s">
         <v>35</v>
@@ -4642,48 +4633,54 @@
         <v>37</v>
       </c>
       <c r="K40" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L40" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M40" t="s">
-        <v>186</v>
+        <v>32</v>
       </c>
       <c r="N40" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q40" t="s">
-        <v>63</v>
+        <v>354</v>
       </c>
       <c r="R40" t="s">
-        <v>43</v>
+        <v>202</v>
+      </c>
+      <c r="U40" t="s">
+        <v>353</v>
+      </c>
+      <c r="V40" t="s">
+        <v>42</v>
       </c>
       <c r="W40" t="s">
-        <v>62</v>
+        <v>352</v>
       </c>
     </row>
     <row r="41" spans="1:27">
       <c r="A41" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>356</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>357</v>
       </c>
       <c r="D41" t="s">
-        <v>31</v>
+        <v>358</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>359</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>360</v>
       </c>
       <c r="G41" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="H41" t="s">
         <v>35</v>
@@ -4695,48 +4692,57 @@
         <v>37</v>
       </c>
       <c r="K41" t="s">
-        <v>38</v>
+        <v>362</v>
       </c>
       <c r="L41" t="s">
-        <v>29</v>
+        <v>356</v>
       </c>
       <c r="M41" t="s">
-        <v>32</v>
+        <v>359</v>
       </c>
       <c r="N41" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="Q41" t="s">
-        <v>42</v>
+        <v>365</v>
       </c>
       <c r="R41" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="S41" t="s">
+        <v>357</v>
+      </c>
+      <c r="U41" t="s">
+        <v>288</v>
       </c>
       <c r="W41" t="s">
-        <v>41</v>
+        <v>364</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="42" spans="1:27">
       <c r="A42" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="B42" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="C42" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="D42" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="E42" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="G42" t="s">
-        <v>357</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s">
         <v>35</v>
@@ -4748,60 +4754,54 @@
         <v>37</v>
       </c>
       <c r="K42" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="L42" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="M42" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="N42" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="Q42" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="R42" t="s">
-        <v>43</v>
-      </c>
-      <c r="S42" t="s">
-        <v>355</v>
+        <v>42</v>
       </c>
       <c r="U42" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="V42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W42" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43" spans="1:27">
       <c r="A43" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="B43" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="E43" t="s">
-        <v>186</v>
+        <v>58</v>
       </c>
       <c r="F43" t="s">
-        <v>187</v>
+        <v>59</v>
       </c>
       <c r="G43" t="s">
-        <v>188</v>
+        <v>60</v>
       </c>
       <c r="H43" t="s">
         <v>35</v>
@@ -4813,60 +4813,54 @@
         <v>37</v>
       </c>
       <c r="K43" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="L43" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="M43" t="s">
-        <v>186</v>
+        <v>58</v>
       </c>
       <c r="N43" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="Q43" t="s">
         <v>63</v>
       </c>
       <c r="R43" t="s">
-        <v>43</v>
-      </c>
-      <c r="S43" t="s">
-        <v>57</v>
-      </c>
-      <c r="U43" t="s">
-        <v>96</v>
-      </c>
-      <c r="V43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y43" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:27">
       <c r="A44" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="B44" t="s">
-        <v>367</v>
+        <v>274</v>
       </c>
       <c r="C44" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="D44" t="s">
-        <v>260</v>
+        <v>194</v>
       </c>
       <c r="E44" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="F44" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
-        <v>82</v>
+        <v>378</v>
       </c>
       <c r="H44" t="s">
         <v>35</v>
@@ -4878,54 +4872,63 @@
         <v>37</v>
       </c>
       <c r="K44" t="s">
-        <v>261</v>
+        <v>196</v>
       </c>
       <c r="L44" t="s">
-        <v>367</v>
+        <v>274</v>
       </c>
       <c r="M44" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="N44" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="Q44" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="R44" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="S44" t="s">
+        <v>377</v>
       </c>
       <c r="U44" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="V44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W44" t="s">
-        <v>370</v>
+        <v>380</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>377</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="45" spans="1:27">
       <c r="A45" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B45" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="C45" t="s">
-        <v>375</v>
+        <v>56</v>
       </c>
       <c r="D45" t="s">
-        <v>376</v>
+        <v>326</v>
       </c>
       <c r="E45" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F45" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G45" t="s">
-        <v>377</v>
+        <v>60</v>
       </c>
       <c r="H45" t="s">
         <v>35</v>
@@ -4937,63 +4940,51 @@
         <v>37</v>
       </c>
       <c r="K45" t="s">
-        <v>378</v>
+        <v>327</v>
       </c>
       <c r="L45" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="M45" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="N45" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="Q45" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="R45" t="s">
-        <v>43</v>
-      </c>
-      <c r="S45" t="s">
-        <v>375</v>
-      </c>
-      <c r="U45" t="s">
-        <v>382</v>
-      </c>
-      <c r="V45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W45" t="s">
-        <v>380</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>375</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:27">
       <c r="A46" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B46" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C46" t="s">
-        <v>385</v>
+        <v>275</v>
       </c>
       <c r="D46" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E46" t="s">
-        <v>387</v>
+        <v>146</v>
       </c>
       <c r="F46" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G46" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H46" t="s">
-        <v>35</v>
+        <v>390</v>
       </c>
       <c r="I46" t="s">
         <v>36</v>
@@ -5002,34 +4993,40 @@
         <v>37</v>
       </c>
       <c r="K46" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L46" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="M46" t="s">
-        <v>387</v>
+        <v>151</v>
       </c>
       <c r="N46" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q46" t="s">
-        <v>393</v>
+        <v>282</v>
       </c>
       <c r="R46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S46" t="s">
-        <v>385</v>
+        <v>275</v>
       </c>
       <c r="U46" t="s">
-        <v>332</v>
+        <v>281</v>
+      </c>
+      <c r="V46" t="s">
+        <v>42</v>
       </c>
       <c r="W46" t="s">
-        <v>392</v>
+        <v>280</v>
       </c>
       <c r="Y46" t="s">
-        <v>385</v>
+        <v>275</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:27">
@@ -5037,51 +5034,57 @@
         <v>394</v>
       </c>
       <c r="B47" t="s">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="D47" t="s">
-        <v>304</v>
+        <v>31</v>
       </c>
       <c r="E47" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" t="s">
         <v>395</v>
       </c>
-      <c r="F47" t="s">
-        <v>111</v>
-      </c>
-      <c r="G47" t="s">
-        <v>50</v>
+      <c r="H47" t="s">
+        <v>35</v>
       </c>
       <c r="I47" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="J47" t="s">
         <v>37</v>
       </c>
       <c r="K47" t="s">
-        <v>308</v>
+        <v>38</v>
       </c>
       <c r="L47" t="s">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="M47" t="s">
-        <v>395</v>
+        <v>32</v>
       </c>
       <c r="N47" t="s">
         <v>396</v>
       </c>
-      <c r="U47" t="s">
-        <v>397</v>
+      <c r="Q47" t="s">
+        <v>41</v>
+      </c>
+      <c r="R47" t="s">
+        <v>42</v>
       </c>
       <c r="W47" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:27">
       <c r="A48" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="B48" t="s">
         <v>398</v>
@@ -5090,16 +5093,16 @@
         <v>399</v>
       </c>
       <c r="D48" t="s">
-        <v>386</v>
+        <v>57</v>
       </c>
       <c r="E48" t="s">
-        <v>387</v>
+        <v>48</v>
       </c>
       <c r="F48" t="s">
-        <v>388</v>
+        <v>49</v>
       </c>
       <c r="G48" t="s">
-        <v>400</v>
+        <v>125</v>
       </c>
       <c r="H48" t="s">
         <v>35</v>
@@ -5111,25 +5114,40 @@
         <v>37</v>
       </c>
       <c r="K48" t="s">
-        <v>390</v>
+        <v>159</v>
       </c>
       <c r="L48" t="s">
         <v>398</v>
       </c>
       <c r="M48" t="s">
-        <v>387</v>
+        <v>48</v>
       </c>
       <c r="N48" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q48" t="s">
         <v>403</v>
       </c>
       <c r="R48" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="S48" t="s">
+        <v>399</v>
+      </c>
+      <c r="U48" t="s">
+        <v>402</v>
+      </c>
+      <c r="V48" t="s">
+        <v>42</v>
       </c>
       <c r="W48" t="s">
-        <v>402</v>
+        <v>401</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="49" spans="1:27">
@@ -5137,52 +5155,46 @@
         <v>404</v>
       </c>
       <c r="B49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" t="s">
+        <v>316</v>
+      </c>
+      <c r="E49" t="s">
         <v>405</v>
       </c>
-      <c r="C49" t="s">
-        <v>57</v>
-      </c>
-      <c r="D49" t="s">
-        <v>344</v>
-      </c>
-      <c r="E49" t="s">
-        <v>186</v>
-      </c>
       <c r="F49" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="G49" t="s">
-        <v>188</v>
-      </c>
-      <c r="H49" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I49" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="J49" t="s">
         <v>37</v>
       </c>
       <c r="K49" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="L49" t="s">
+        <v>110</v>
+      </c>
+      <c r="M49" t="s">
         <v>405</v>
-      </c>
-      <c r="M49" t="s">
-        <v>186</v>
       </c>
       <c r="N49" t="s">
         <v>406</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="U49" t="s">
         <v>407</v>
       </c>
-      <c r="R49" t="s">
-        <v>43</v>
-      </c>
       <c r="W49" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:27">
@@ -5196,16 +5208,16 @@
         <v>46</v>
       </c>
       <c r="D50" t="s">
-        <v>265</v>
+        <v>112</v>
       </c>
       <c r="E50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G50" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H50" t="s">
         <v>35</v>
@@ -5217,13 +5229,13 @@
         <v>37</v>
       </c>
       <c r="K50" t="s">
-        <v>266</v>
+        <v>116</v>
       </c>
       <c r="L50" t="s">
         <v>409</v>
       </c>
       <c r="M50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N50" t="s">
         <v>410</v>
@@ -5232,7 +5244,7 @@
         <v>54</v>
       </c>
       <c r="R50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S50" t="s">
         <v>46</v>
@@ -5249,25 +5261,25 @@
     </row>
     <row r="51" spans="1:27">
       <c r="A51" t="s">
+        <v>355</v>
+      </c>
+      <c r="B51" t="s">
         <v>411</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
+        <v>357</v>
+      </c>
+      <c r="D51" t="s">
+        <v>358</v>
+      </c>
+      <c r="E51" t="s">
+        <v>359</v>
+      </c>
+      <c r="F51" t="s">
+        <v>360</v>
+      </c>
+      <c r="G51" t="s">
         <v>412</v>
-      </c>
-      <c r="C51" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" t="s">
-        <v>413</v>
-      </c>
-      <c r="E51" t="s">
-        <v>186</v>
-      </c>
-      <c r="F51" t="s">
-        <v>187</v>
-      </c>
-      <c r="G51" t="s">
-        <v>188</v>
       </c>
       <c r="H51" t="s">
         <v>35</v>
@@ -5279,63 +5291,54 @@
         <v>37</v>
       </c>
       <c r="K51" t="s">
-        <v>414</v>
+        <v>362</v>
       </c>
       <c r="L51" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M51" t="s">
-        <v>186</v>
+        <v>359</v>
       </c>
       <c r="N51" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="Q51" t="s">
-        <v>63</v>
+        <v>365</v>
       </c>
       <c r="R51" t="s">
-        <v>43</v>
-      </c>
-      <c r="S51" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="U51" t="s">
-        <v>96</v>
-      </c>
-      <c r="V51" t="s">
-        <v>43</v>
+        <v>193</v>
       </c>
       <c r="W51" t="s">
-        <v>62</v>
+        <v>364</v>
       </c>
       <c r="Y51" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>57</v>
+        <v>357</v>
       </c>
     </row>
     <row r="52" spans="1:27">
       <c r="A52" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
       <c r="B52" t="s">
+        <v>415</v>
+      </c>
+      <c r="C52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" t="s">
         <v>416</v>
       </c>
-      <c r="C52" t="s">
-        <v>399</v>
-      </c>
-      <c r="D52" t="s">
-        <v>386</v>
-      </c>
       <c r="E52" t="s">
-        <v>387</v>
+        <v>58</v>
       </c>
       <c r="F52" t="s">
-        <v>388</v>
+        <v>59</v>
       </c>
       <c r="G52" t="s">
-        <v>417</v>
+        <v>60</v>
       </c>
       <c r="H52" t="s">
         <v>35</v>
@@ -5347,34 +5350,40 @@
         <v>37</v>
       </c>
       <c r="K52" t="s">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="L52" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M52" t="s">
-        <v>387</v>
+        <v>58</v>
       </c>
       <c r="N52" t="s">
         <v>418</v>
       </c>
       <c r="Q52" t="s">
-        <v>403</v>
+        <v>63</v>
       </c>
       <c r="R52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S52" t="s">
-        <v>399</v>
+        <v>56</v>
       </c>
       <c r="U52" t="s">
-        <v>264</v>
+        <v>96</v>
+      </c>
+      <c r="V52" t="s">
+        <v>42</v>
       </c>
       <c r="W52" t="s">
-        <v>402</v>
+        <v>64</v>
       </c>
       <c r="Y52" t="s">
-        <v>399</v>
+        <v>56</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:27">
@@ -5388,16 +5397,16 @@
         <v>46</v>
       </c>
       <c r="D53" t="s">
-        <v>421</v>
+        <v>68</v>
       </c>
       <c r="E53" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F53" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="G53" t="s">
-        <v>50</v>
+        <v>227</v>
       </c>
       <c r="H53" t="s">
         <v>35</v>
@@ -5409,31 +5418,16 @@
         <v>37</v>
       </c>
       <c r="K53" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L53" t="s">
         <v>420</v>
       </c>
       <c r="M53" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="N53" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>54</v>
-      </c>
-      <c r="R53" t="s">
-        <v>43</v>
-      </c>
-      <c r="S53" t="s">
-        <v>46</v>
-      </c>
-      <c r="U53" t="s">
-        <v>424</v>
-      </c>
-      <c r="V53" t="s">
-        <v>43</v>
+        <v>422</v>
       </c>
       <c r="W53" t="s">
         <v>53</v>
@@ -5444,25 +5438,25 @@
     </row>
     <row r="54" spans="1:27">
       <c r="A54" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="B54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C54" t="s">
-        <v>385</v>
+        <v>56</v>
       </c>
       <c r="D54" t="s">
-        <v>386</v>
+        <v>57</v>
       </c>
       <c r="E54" t="s">
-        <v>387</v>
+        <v>58</v>
       </c>
       <c r="F54" t="s">
-        <v>388</v>
+        <v>59</v>
       </c>
       <c r="G54" t="s">
-        <v>426</v>
+        <v>60</v>
       </c>
       <c r="H54" t="s">
         <v>35</v>
@@ -5474,54 +5468,42 @@
         <v>37</v>
       </c>
       <c r="K54" t="s">
-        <v>390</v>
+        <v>61</v>
       </c>
       <c r="L54" t="s">
+        <v>424</v>
+      </c>
+      <c r="M54" t="s">
+        <v>58</v>
+      </c>
+      <c r="N54" t="s">
         <v>425</v>
       </c>
-      <c r="M54" t="s">
-        <v>387</v>
-      </c>
-      <c r="N54" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>393</v>
-      </c>
-      <c r="R54" t="s">
-        <v>43</v>
-      </c>
-      <c r="U54" t="s">
-        <v>192</v>
-      </c>
       <c r="W54" t="s">
-        <v>392</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>385</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:27">
       <c r="A55" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B55" t="s">
-        <v>429</v>
+        <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>430</v>
+        <v>67</v>
       </c>
       <c r="D55" t="s">
-        <v>431</v>
+        <v>68</v>
       </c>
       <c r="E55" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="G55" t="s">
-        <v>163</v>
+        <v>427</v>
       </c>
       <c r="H55" t="s">
         <v>35</v>
@@ -5533,51 +5515,48 @@
         <v>37</v>
       </c>
       <c r="K55" t="s">
-        <v>432</v>
+        <v>171</v>
       </c>
       <c r="L55" t="s">
-        <v>429</v>
+        <v>66</v>
       </c>
       <c r="M55" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="N55" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>435</v>
-      </c>
-      <c r="R55" t="s">
-        <v>199</v>
+        <v>428</v>
       </c>
       <c r="U55" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="W55" t="s">
-        <v>434</v>
+        <v>75</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:27">
       <c r="A56" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B56" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C56" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D56" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="E56" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="F56" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="G56" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="H56" t="s">
         <v>35</v>
@@ -5589,48 +5568,48 @@
         <v>37</v>
       </c>
       <c r="K56" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="L56" t="s">
+        <v>430</v>
+      </c>
+      <c r="M56" t="s">
+        <v>433</v>
+      </c>
+      <c r="N56" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>438</v>
+      </c>
+      <c r="R56" t="s">
+        <v>42</v>
+      </c>
+      <c r="W56" t="s">
         <v>437</v>
-      </c>
-      <c r="M56" t="s">
-        <v>440</v>
-      </c>
-      <c r="N56" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>445</v>
-      </c>
-      <c r="R56" t="s">
-        <v>43</v>
-      </c>
-      <c r="W56" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="57" spans="1:27">
       <c r="A57" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B57" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C57" t="s">
-        <v>46</v>
+        <v>441</v>
       </c>
       <c r="D57" t="s">
-        <v>99</v>
+        <v>442</v>
       </c>
       <c r="E57" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="H57" t="s">
         <v>35</v>
@@ -5642,45 +5621,51 @@
         <v>37</v>
       </c>
       <c r="K57" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="L57" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="M57" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="N57" t="s">
-        <v>449</v>
+        <v>444</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>446</v>
+      </c>
+      <c r="R57" t="s">
+        <v>202</v>
+      </c>
+      <c r="U57" t="s">
+        <v>288</v>
       </c>
       <c r="W57" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>46</v>
+        <v>445</v>
       </c>
     </row>
     <row r="58" spans="1:27">
       <c r="A58" t="s">
-        <v>450</v>
+        <v>355</v>
       </c>
       <c r="B58" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C58" t="s">
-        <v>57</v>
+        <v>448</v>
       </c>
       <c r="D58" t="s">
-        <v>90</v>
+        <v>358</v>
       </c>
       <c r="E58" t="s">
-        <v>186</v>
+        <v>359</v>
       </c>
       <c r="F58" t="s">
-        <v>187</v>
+        <v>360</v>
       </c>
       <c r="G58" t="s">
-        <v>188</v>
+        <v>449</v>
       </c>
       <c r="H58" t="s">
         <v>35</v>
@@ -5692,19 +5677,25 @@
         <v>37</v>
       </c>
       <c r="K58" t="s">
-        <v>215</v>
+        <v>362</v>
       </c>
       <c r="L58" t="s">
+        <v>447</v>
+      </c>
+      <c r="M58" t="s">
+        <v>359</v>
+      </c>
+      <c r="N58" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>452</v>
+      </c>
+      <c r="R58" t="s">
+        <v>42</v>
+      </c>
+      <c r="W58" t="s">
         <v>451</v>
-      </c>
-      <c r="M58" t="s">
-        <v>186</v>
-      </c>
-      <c r="N58" t="s">
-        <v>452</v>
-      </c>
-      <c r="W58" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:27">
@@ -5712,19 +5703,19 @@
         <v>453</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
         <v>46</v>
       </c>
       <c r="D59" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="E59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G59" t="s">
         <v>454</v>
@@ -5739,13 +5730,13 @@
         <v>37</v>
       </c>
       <c r="K59" t="s">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="L59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N59" t="s">
         <v>455</v>
@@ -5762,25 +5753,25 @@
     </row>
     <row r="60" spans="1:27">
       <c r="A60" t="s">
+        <v>355</v>
+      </c>
+      <c r="B60" t="s">
         <v>457</v>
       </c>
-      <c r="B60" t="s">
-        <v>65</v>
-      </c>
       <c r="C60" t="s">
-        <v>98</v>
+        <v>448</v>
       </c>
       <c r="D60" t="s">
-        <v>99</v>
+        <v>358</v>
       </c>
       <c r="E60" t="s">
-        <v>68</v>
+        <v>359</v>
       </c>
       <c r="F60" t="s">
-        <v>69</v>
+        <v>360</v>
       </c>
       <c r="G60" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="H60" t="s">
         <v>35</v>
@@ -5792,25 +5783,34 @@
         <v>37</v>
       </c>
       <c r="K60" t="s">
-        <v>101</v>
+        <v>362</v>
       </c>
       <c r="L60" t="s">
-        <v>65</v>
+        <v>457</v>
       </c>
       <c r="M60" t="s">
-        <v>68</v>
+        <v>359</v>
       </c>
       <c r="N60" t="s">
         <v>458</v>
       </c>
+      <c r="Q60" t="s">
+        <v>452</v>
+      </c>
+      <c r="R60" t="s">
+        <v>42</v>
+      </c>
+      <c r="S60" t="s">
+        <v>448</v>
+      </c>
       <c r="U60" t="s">
-        <v>332</v>
+        <v>111</v>
       </c>
       <c r="W60" t="s">
-        <v>103</v>
+        <v>451</v>
       </c>
       <c r="Y60" t="s">
-        <v>98</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
